--- a/Code/Results/Cases/Case_0_147/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_147/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9230374306728373</v>
+        <v>1.040175243839556</v>
       </c>
       <c r="D2">
-        <v>0.9323309382868423</v>
+        <v>1.0428196360626</v>
       </c>
       <c r="E2">
-        <v>0.9423427187824145</v>
+        <v>1.047274954924093</v>
       </c>
       <c r="F2">
-        <v>0.9417191118885697</v>
+        <v>1.055595767166296</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9477918469953878</v>
+        <v>1.045263271193734</v>
       </c>
       <c r="K2">
-        <v>0.9448210827861412</v>
+        <v>1.045595246361179</v>
       </c>
       <c r="L2">
-        <v>0.9546683739821341</v>
+        <v>1.050038048749574</v>
       </c>
       <c r="M2">
-        <v>0.9540548815030613</v>
+        <v>1.058335791655318</v>
       </c>
       <c r="N2">
-        <v>0.982153469166154</v>
+        <v>1.018349091485198</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9387296246099736</v>
+        <v>1.042716868103573</v>
       </c>
       <c r="D3">
-        <v>0.9471303029152219</v>
+        <v>1.04527617680278</v>
       </c>
       <c r="E3">
-        <v>0.9564031954099314</v>
+        <v>1.049600976006425</v>
       </c>
       <c r="F3">
-        <v>0.9569420433047982</v>
+        <v>1.058140979816293</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9610423712808693</v>
+        <v>1.047442465382062</v>
       </c>
       <c r="K3">
-        <v>0.9584875506868729</v>
+        <v>1.047858394805339</v>
       </c>
       <c r="L3">
-        <v>0.967626066636066</v>
+        <v>1.052171958826295</v>
       </c>
       <c r="M3">
-        <v>0.96815720724973</v>
+        <v>1.060690067838608</v>
       </c>
       <c r="N3">
-        <v>0.9871400526658689</v>
+        <v>1.019131940075214</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9482584162619071</v>
+        <v>1.044352909264869</v>
       </c>
       <c r="D4">
-        <v>0.9561278266292598</v>
+        <v>1.046857622668442</v>
       </c>
       <c r="E4">
-        <v>0.9649522563971302</v>
+        <v>1.051098044896565</v>
       </c>
       <c r="F4">
-        <v>0.9662012216838736</v>
+        <v>1.05977984141871</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.9690851361059898</v>
+        <v>1.048844114537247</v>
       </c>
       <c r="K4">
-        <v>0.9667862697632215</v>
+        <v>1.049314436128667</v>
       </c>
       <c r="L4">
-        <v>0.9754929283675076</v>
+        <v>1.053544418375485</v>
       </c>
       <c r="M4">
-        <v>0.976725442810356</v>
+        <v>1.062205120318036</v>
       </c>
       <c r="N4">
-        <v>0.9901642209873813</v>
+        <v>1.019634041792785</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9521326229082567</v>
+        <v>1.045038707707896</v>
       </c>
       <c r="D5">
-        <v>0.9597883131408055</v>
+        <v>1.04752057609493</v>
       </c>
       <c r="E5">
-        <v>0.968430345095692</v>
+        <v>1.051725542078274</v>
       </c>
       <c r="F5">
-        <v>0.9699691075831981</v>
+        <v>1.060466943123821</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.9723540782020568</v>
+        <v>1.049431397062961</v>
       </c>
       <c r="K5">
-        <v>0.9701600741561103</v>
+        <v>1.049924602763515</v>
       </c>
       <c r="L5">
-        <v>0.9786907363942414</v>
+        <v>1.054119455211515</v>
       </c>
       <c r="M5">
-        <v>0.9802099287935958</v>
+        <v>1.06284010745029</v>
       </c>
       <c r="N5">
-        <v>0.991392456129939</v>
+        <v>1.019844076417721</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9527758518672476</v>
+        <v>1.045153741009737</v>
       </c>
       <c r="D6">
-        <v>0.960396184392434</v>
+        <v>1.047631779792947</v>
       </c>
       <c r="E6">
-        <v>0.969007926523377</v>
+        <v>1.051830793363836</v>
       </c>
       <c r="F6">
-        <v>0.9705948687064253</v>
+        <v>1.06058220209053</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.9728967456366793</v>
+        <v>1.049529890216212</v>
       </c>
       <c r="K6">
-        <v>0.9707201982709626</v>
+        <v>1.050026939332132</v>
       </c>
       <c r="L6">
-        <v>0.9792216142597381</v>
+        <v>1.054215893725981</v>
       </c>
       <c r="M6">
-        <v>0.9807884925151561</v>
+        <v>1.062946612243975</v>
       </c>
       <c r="N6">
-        <v>0.9915962893910059</v>
+        <v>1.019879281142692</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9483106800343937</v>
+        <v>1.044362080694963</v>
       </c>
       <c r="D7">
-        <v>0.9561771985817343</v>
+        <v>1.046866488426631</v>
       </c>
       <c r="E7">
-        <v>0.9649991681522647</v>
+        <v>1.051106436828204</v>
       </c>
       <c r="F7">
-        <v>0.966252038489672</v>
+        <v>1.059789029803533</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.9691292393564633</v>
+        <v>1.048851969514199</v>
       </c>
       <c r="K7">
-        <v>0.9668317844703436</v>
+        <v>1.049322596813124</v>
       </c>
       <c r="L7">
-        <v>0.9755360705643878</v>
+        <v>1.053552109625916</v>
       </c>
       <c r="M7">
-        <v>0.9767724463186345</v>
+        <v>1.06221361260545</v>
       </c>
       <c r="N7">
-        <v>0.9901807958915932</v>
+        <v>1.019636852384269</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9284821884292206</v>
+        <v>1.041036003972119</v>
       </c>
       <c r="D8">
-        <v>0.9374633282004039</v>
+        <v>1.043651544782026</v>
       </c>
       <c r="E8">
-        <v>0.9472186095255617</v>
+        <v>1.048062736051536</v>
       </c>
       <c r="F8">
-        <v>0.9469974702946511</v>
+        <v>1.056457635697644</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.9523899513482739</v>
+        <v>1.046001516165925</v>
       </c>
       <c r="K8">
-        <v>0.9495627683606598</v>
+        <v>1.046361850760844</v>
       </c>
       <c r="L8">
-        <v>0.959164408628578</v>
+        <v>1.050760965744564</v>
       </c>
       <c r="M8">
-        <v>0.9589467074222456</v>
+        <v>1.059133184507377</v>
       </c>
       <c r="N8">
-        <v>0.9838842248472729</v>
+        <v>1.018614591491492</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.8876712786761335</v>
+        <v>1.035106927191077</v>
       </c>
       <c r="D9">
-        <v>0.8990645043562188</v>
+        <v>1.037921960566552</v>
       </c>
       <c r="E9">
-        <v>0.9107502664584579</v>
+        <v>1.042635629575314</v>
       </c>
       <c r="F9">
-        <v>0.9075284586402216</v>
+        <v>1.050523089021409</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.9179258895707119</v>
+        <v>1.040911834949643</v>
       </c>
       <c r="K9">
-        <v>0.9140390988655617</v>
+        <v>1.041078281382408</v>
       </c>
       <c r="L9">
-        <v>0.925478831966577</v>
+        <v>1.045776711941032</v>
       </c>
       <c r="M9">
-        <v>0.9223240190229275</v>
+        <v>1.053639007243573</v>
       </c>
       <c r="N9">
-        <v>0.9709172311534647</v>
+        <v>1.01677833938926</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.8542589704525424</v>
+        <v>1.031104808891266</v>
       </c>
       <c r="D10">
-        <v>0.8677592330878694</v>
+        <v>1.034055502186973</v>
       </c>
       <c r="E10">
-        <v>0.8810489903996306</v>
+        <v>1.038971493325862</v>
       </c>
       <c r="F10">
-        <v>0.8753850579399224</v>
+        <v>1.046520062579968</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.8897419268240936</v>
+        <v>1.037470649832531</v>
       </c>
       <c r="K10">
-        <v>0.8850114321538297</v>
+        <v>1.037508062639325</v>
       </c>
       <c r="L10">
-        <v>0.8979585702352494</v>
+        <v>1.042406508592144</v>
       </c>
       <c r="M10">
-        <v>0.8924389369800393</v>
+        <v>1.049928490539341</v>
       </c>
       <c r="N10">
-        <v>0.9603503264663972</v>
+        <v>1.015529589008377</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.8374093132735706</v>
+        <v>1.029359312437538</v>
       </c>
       <c r="D11">
-        <v>0.8520228549379842</v>
+        <v>1.032369425976715</v>
       </c>
       <c r="E11">
-        <v>0.8661337697380591</v>
+        <v>1.037373225023412</v>
       </c>
       <c r="F11">
-        <v>0.8592381411801854</v>
+        <v>1.044774848800068</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.8755528162860402</v>
+        <v>1.035968467098413</v>
       </c>
       <c r="K11">
-        <v>0.8704032540695418</v>
+        <v>1.035950041062793</v>
       </c>
       <c r="L11">
-        <v>0.8841147008052194</v>
+        <v>1.040935245259233</v>
       </c>
       <c r="M11">
-        <v>0.8774120404863575</v>
+        <v>1.048309724469149</v>
       </c>
       <c r="N11">
-        <v>0.9550537767738924</v>
+        <v>1.014982781596008</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.8306543578312235</v>
+        <v>1.028709000077694</v>
       </c>
       <c r="D12">
-        <v>0.845724518287457</v>
+        <v>1.03174129089536</v>
       </c>
       <c r="E12">
-        <v>0.860167427251623</v>
+        <v>1.036777739503773</v>
       </c>
       <c r="F12">
-        <v>0.852777463069548</v>
+        <v>1.044124745288906</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.8698704199325671</v>
+        <v>1.03540860554721</v>
       </c>
       <c r="K12">
-        <v>0.8645539031873186</v>
+        <v>1.035369441849504</v>
       </c>
       <c r="L12">
-        <v>0.8785728884896732</v>
+        <v>1.040386897755597</v>
       </c>
       <c r="M12">
-        <v>0.8713973695840898</v>
+        <v>1.04770656118122</v>
       </c>
       <c r="N12">
-        <v>0.9529380731220223</v>
+        <v>1.014778735749135</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.8321289781491316</v>
+        <v>1.028848584021224</v>
       </c>
       <c r="D13">
-        <v>0.8470989385752661</v>
+        <v>1.031876112877346</v>
       </c>
       <c r="E13">
-        <v>0.8614692268457869</v>
+        <v>1.036905556456136</v>
       </c>
       <c r="F13">
-        <v>0.8541872135301571</v>
+        <v>1.044264279696541</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.8711105802322107</v>
+        <v>1.035528784018839</v>
       </c>
       <c r="K13">
-        <v>0.865830461441203</v>
+        <v>1.03549406849484</v>
       </c>
       <c r="L13">
-        <v>0.8797822487854204</v>
+        <v>1.040504605077418</v>
       </c>
       <c r="M13">
-        <v>0.87270989336419</v>
+        <v>1.047836027963774</v>
       </c>
       <c r="N13">
-        <v>0.9533995333103178</v>
+        <v>1.014822547050643</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.8368621845270836</v>
+        <v>1.029305597761362</v>
       </c>
       <c r="D14">
-        <v>0.851512485803293</v>
+        <v>1.032317542296348</v>
       </c>
       <c r="E14">
-        <v>0.8656502283200029</v>
+        <v>1.037324039455553</v>
       </c>
       <c r="F14">
-        <v>0.8587145752581237</v>
+        <v>1.04472114925531</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.8750924249687005</v>
+        <v>1.035922227565426</v>
       </c>
       <c r="K14">
-        <v>0.8699293185819008</v>
+        <v>1.035902087289257</v>
       </c>
       <c r="L14">
-        <v>0.8836656486074338</v>
+        <v>1.04088995687591</v>
       </c>
       <c r="M14">
-        <v>0.8769246604883411</v>
+        <v>1.048259905569687</v>
       </c>
       <c r="N14">
-        <v>0.9548822390181433</v>
+        <v>1.014965934352414</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.8397071223314537</v>
+        <v>1.029586917491995</v>
       </c>
       <c r="D15">
-        <v>0.8541667099925717</v>
+        <v>1.032589274173725</v>
       </c>
       <c r="E15">
-        <v>0.8681650723577296</v>
+        <v>1.037581637873289</v>
       </c>
       <c r="F15">
-        <v>0.8614375113465217</v>
+        <v>1.045002393982243</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.8774866019054937</v>
+        <v>1.036164389590152</v>
       </c>
       <c r="K15">
-        <v>0.8723939640346893</v>
+        <v>1.03615323000111</v>
       </c>
       <c r="L15">
-        <v>0.8860009553565251</v>
+        <v>1.041127137225676</v>
       </c>
       <c r="M15">
-        <v>0.8794593183273015</v>
+        <v>1.048520819253089</v>
       </c>
       <c r="N15">
-        <v>0.9557745172107898</v>
+        <v>1.015054155135527</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.8553169799845273</v>
+        <v>1.031220381217138</v>
       </c>
       <c r="D16">
-        <v>0.8687485224413077</v>
+        <v>1.034167145623771</v>
       </c>
       <c r="E16">
-        <v>0.8819870256472494</v>
+        <v>1.039077313781741</v>
       </c>
       <c r="F16">
-        <v>0.8764003930183617</v>
+        <v>1.046635630581571</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.8906335112749982</v>
+        <v>1.037570083988449</v>
       </c>
       <c r="K16">
-        <v>0.8859294623659457</v>
+        <v>1.037611203200614</v>
       </c>
       <c r="L16">
-        <v>0.8988287252149464</v>
+        <v>1.042503894736899</v>
       </c>
       <c r="M16">
-        <v>0.8933835617584865</v>
+        <v>1.05003566248455</v>
       </c>
       <c r="N16">
-        <v>0.9606837351500886</v>
+        <v>1.015565748614914</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.8643955173704805</v>
+        <v>1.032241599264275</v>
       </c>
       <c r="D17">
-        <v>0.8772429305595498</v>
+        <v>1.035153676581916</v>
       </c>
       <c r="E17">
-        <v>0.8900429944190422</v>
+        <v>1.040012341989709</v>
       </c>
       <c r="F17">
-        <v>0.8851196043651151</v>
+        <v>1.047656888725778</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.8982866749266484</v>
+        <v>1.038448548867655</v>
       </c>
       <c r="K17">
-        <v>0.8938102356023007</v>
+        <v>1.038522469008553</v>
       </c>
       <c r="L17">
-        <v>0.9062991622188713</v>
+        <v>1.043364258595997</v>
       </c>
       <c r="M17">
-        <v>0.9014940161428739</v>
+        <v>1.050982601642855</v>
       </c>
       <c r="N17">
-        <v>0.9635482490953168</v>
+        <v>1.015885011622206</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.8694730868318521</v>
+        <v>1.032836052206624</v>
       </c>
       <c r="D18">
-        <v>0.881998042698798</v>
+        <v>1.035727962332573</v>
       </c>
       <c r="E18">
-        <v>0.8945538942069144</v>
+        <v>1.040556606213863</v>
       </c>
       <c r="F18">
-        <v>0.8900014786825549</v>
+        <v>1.048251430112707</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.9025689602401603</v>
+        <v>1.038959776764373</v>
       </c>
       <c r="K18">
-        <v>0.8982203768366686</v>
+        <v>1.039052832485777</v>
       </c>
       <c r="L18">
-        <v>0.9104801288991126</v>
+        <v>1.043864946101598</v>
       </c>
       <c r="M18">
-        <v>0.9060337781794086</v>
+        <v>1.051533773423067</v>
       </c>
       <c r="N18">
-        <v>0.9651529761110724</v>
+        <v>1.016070646239165</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.8711705045745087</v>
+        <v>1.033038542831997</v>
       </c>
       <c r="D19">
-        <v>0.8835883285064809</v>
+        <v>1.035923587405972</v>
       </c>
       <c r="E19">
-        <v>0.8960626913298555</v>
+        <v>1.040741997864389</v>
       </c>
       <c r="F19">
-        <v>0.8916343071310272</v>
+        <v>1.048453961861148</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.9040007940245037</v>
+        <v>1.039133896385259</v>
       </c>
       <c r="K19">
-        <v>0.8996950449294376</v>
+        <v>1.039233477464123</v>
       </c>
       <c r="L19">
-        <v>0.9118782290722566</v>
+        <v>1.044035474663893</v>
       </c>
       <c r="M19">
-        <v>0.9075519652271195</v>
+        <v>1.051721513654259</v>
       </c>
       <c r="N19">
-        <v>0.9656898178087532</v>
+        <v>1.016133844100685</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.8634447608264182</v>
+        <v>1.032132157513226</v>
       </c>
       <c r="D20">
-        <v>0.8763528876313617</v>
+        <v>1.035047949654619</v>
       </c>
       <c r="E20">
-        <v>0.8891987569347172</v>
+        <v>1.039912138813007</v>
       </c>
       <c r="F20">
-        <v>0.8842059082351236</v>
+        <v>1.047547435927113</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.8974849779166317</v>
+        <v>1.038354418929008</v>
       </c>
       <c r="K20">
-        <v>0.892984643208141</v>
+        <v>1.038424819505771</v>
       </c>
       <c r="L20">
-        <v>0.9055165059061052</v>
+        <v>1.043272068890828</v>
       </c>
       <c r="M20">
-        <v>0.9006442456328667</v>
+        <v>1.050881124672923</v>
       </c>
       <c r="N20">
-        <v>0.9632479703168024</v>
+        <v>1.015850818504636</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.8354836221724845</v>
+        <v>1.029171073216511</v>
       </c>
       <c r="D21">
-        <v>0.850226718738713</v>
+        <v>1.03218760398818</v>
       </c>
       <c r="E21">
-        <v>0.864432105513085</v>
+        <v>1.037200857333935</v>
       </c>
       <c r="F21">
-        <v>0.857395594427228</v>
+        <v>1.044586664282696</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.873932513370196</v>
+        <v>1.035806420760359</v>
       </c>
       <c r="K21">
-        <v>0.8687352976013318</v>
+        <v>1.035781988357567</v>
       </c>
       <c r="L21">
-        <v>0.8825343444070012</v>
+        <v>1.040776532069838</v>
       </c>
       <c r="M21">
-        <v>0.875696806613576</v>
+        <v>1.048135136650864</v>
       </c>
       <c r="N21">
-        <v>0.9544501602764238</v>
+        <v>1.01492373641907</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.8148814602314113</v>
+        <v>1.027297961370661</v>
       </c>
       <c r="D22">
-        <v>0.8310421218749271</v>
+        <v>1.030378445588498</v>
       </c>
       <c r="E22">
-        <v>0.8462672181822756</v>
+        <v>1.03548561886827</v>
       </c>
       <c r="F22">
-        <v>0.8377209936215798</v>
+        <v>1.042714351047513</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.8566174540076827</v>
+        <v>1.034193461159823</v>
       </c>
       <c r="K22">
-        <v>0.8509132278987334</v>
+        <v>1.034109422142072</v>
       </c>
       <c r="L22">
-        <v>0.8656533600172016</v>
+        <v>1.039196726786682</v>
       </c>
       <c r="M22">
-        <v>0.8573763516697794</v>
+        <v>1.046397705749013</v>
       </c>
       <c r="N22">
-        <v>0.9480171930411103</v>
+        <v>1.014335409212803</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.8261634590474586</v>
+        <v>1.028292034507777</v>
       </c>
       <c r="D23">
-        <v>0.8415405900808935</v>
+        <v>1.031338556130766</v>
       </c>
       <c r="E23">
-        <v>0.8562051799495159</v>
+        <v>1.036395920750502</v>
       </c>
       <c r="F23">
-        <v>0.848486314449048</v>
+        <v>1.043707942975484</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.8660947026274672</v>
+        <v>1.035049578893487</v>
       </c>
       <c r="K23">
-        <v>0.8606675001213844</v>
+        <v>1.034997137271412</v>
       </c>
       <c r="L23">
-        <v>0.8748913575535694</v>
+        <v>1.040035252155885</v>
       </c>
       <c r="M23">
-        <v>0.8674018626604527</v>
+        <v>1.047319808003666</v>
       </c>
       <c r="N23">
-        <v>0.9515341454518251</v>
+        <v>1.014647815229793</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.8638750306236691</v>
+        <v>1.032181613253357</v>
       </c>
       <c r="D24">
-        <v>0.8767556679946865</v>
+        <v>1.03509572662457</v>
       </c>
       <c r="E24">
-        <v>0.8895808047092005</v>
+        <v>1.039957419778833</v>
       </c>
       <c r="F24">
-        <v>0.8846193897613444</v>
+        <v>1.047596896458321</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.8978477841633173</v>
+        <v>1.03839695579567</v>
       </c>
       <c r="K24">
-        <v>0.8933582616941292</v>
+        <v>1.038468946701523</v>
       </c>
       <c r="L24">
-        <v>0.9058706924590603</v>
+        <v>1.043313728995119</v>
       </c>
       <c r="M24">
-        <v>0.9010288024285232</v>
+        <v>1.05092698133427</v>
       </c>
       <c r="N24">
-        <v>0.9633838549641495</v>
+        <v>1.015866270712587</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.899100923387042</v>
+        <v>1.03664817334241</v>
       </c>
       <c r="D25">
-        <v>0.90980168508381</v>
+        <v>1.039411178549703</v>
       </c>
       <c r="E25">
-        <v>0.9209444663288071</v>
+        <v>1.044046545262018</v>
       </c>
       <c r="F25">
-        <v>0.9185599703384975</v>
+        <v>1.052065275295967</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.9275763099194065</v>
+        <v>1.042235876875731</v>
       </c>
       <c r="K25">
-        <v>0.9239826626470298</v>
+        <v>1.042452402005795</v>
       </c>
       <c r="L25">
-        <v>0.9349079508451743</v>
+        <v>1.047073381547942</v>
       </c>
       <c r="M25">
-        <v>0.9325694157313665</v>
+        <v>1.055067549748624</v>
       </c>
       <c r="N25">
-        <v>0.9745454565877216</v>
+        <v>1.017257303789771</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_147/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_147/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.040175243839556</v>
+        <v>0.9230374306728357</v>
       </c>
       <c r="D2">
-        <v>1.0428196360626</v>
+        <v>0.932330938286841</v>
       </c>
       <c r="E2">
-        <v>1.047274954924093</v>
+        <v>0.9423427187824129</v>
       </c>
       <c r="F2">
-        <v>1.055595767166296</v>
+        <v>0.9417191118885681</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>1.045263271193734</v>
+        <v>0.9477918469953862</v>
       </c>
       <c r="K2">
-        <v>1.045595246361179</v>
+        <v>0.9448210827861395</v>
       </c>
       <c r="L2">
-        <v>1.050038048749574</v>
+        <v>0.9546683739821326</v>
       </c>
       <c r="M2">
-        <v>1.058335791655318</v>
+        <v>0.9540548815030595</v>
       </c>
       <c r="N2">
-        <v>1.018349091485198</v>
+        <v>0.9821534691661534</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.042716868103573</v>
+        <v>0.9387296246099767</v>
       </c>
       <c r="D3">
-        <v>1.04527617680278</v>
+        <v>0.9471303029152249</v>
       </c>
       <c r="E3">
-        <v>1.049600976006425</v>
+        <v>0.9564031954099341</v>
       </c>
       <c r="F3">
-        <v>1.058140979816293</v>
+        <v>0.9569420433048016</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>1.047442465382062</v>
+        <v>0.9610423712808722</v>
       </c>
       <c r="K3">
-        <v>1.047858394805339</v>
+        <v>0.9584875506868756</v>
       </c>
       <c r="L3">
-        <v>1.052171958826295</v>
+        <v>0.9676260666360689</v>
       </c>
       <c r="M3">
-        <v>1.060690067838608</v>
+        <v>0.9681572072497331</v>
       </c>
       <c r="N3">
-        <v>1.019131940075214</v>
+        <v>0.98714005266587</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.044352909264869</v>
+        <v>0.9482584162619061</v>
       </c>
       <c r="D4">
-        <v>1.046857622668442</v>
+        <v>0.9561278266292582</v>
       </c>
       <c r="E4">
-        <v>1.051098044896565</v>
+        <v>0.964952256397129</v>
       </c>
       <c r="F4">
-        <v>1.05977984141871</v>
+        <v>0.966201221683872</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>1.048844114537247</v>
+        <v>0.9690851361059887</v>
       </c>
       <c r="K4">
-        <v>1.049314436128667</v>
+        <v>0.9667862697632199</v>
       </c>
       <c r="L4">
-        <v>1.053544418375485</v>
+        <v>0.9754929283675066</v>
       </c>
       <c r="M4">
-        <v>1.062205120318036</v>
+        <v>0.9767254428103546</v>
       </c>
       <c r="N4">
-        <v>1.019634041792785</v>
+        <v>0.9901642209873812</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.045038707707896</v>
+        <v>0.9521326229082567</v>
       </c>
       <c r="D5">
-        <v>1.04752057609493</v>
+        <v>0.9597883131408057</v>
       </c>
       <c r="E5">
-        <v>1.051725542078274</v>
+        <v>0.9684303450956923</v>
       </c>
       <c r="F5">
-        <v>1.060466943123821</v>
+        <v>0.9699691075831984</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>1.049431397062961</v>
+        <v>0.9723540782020568</v>
       </c>
       <c r="K5">
-        <v>1.049924602763515</v>
+        <v>0.9701600741561105</v>
       </c>
       <c r="L5">
-        <v>1.054119455211515</v>
+        <v>0.9786907363942418</v>
       </c>
       <c r="M5">
-        <v>1.06284010745029</v>
+        <v>0.9802099287935964</v>
       </c>
       <c r="N5">
-        <v>1.019844076417721</v>
+        <v>0.9913924561299391</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.045153741009737</v>
+        <v>0.9527758518672454</v>
       </c>
       <c r="D6">
-        <v>1.047631779792947</v>
+        <v>0.9603961843924322</v>
       </c>
       <c r="E6">
-        <v>1.051830793363836</v>
+        <v>0.9690079265233754</v>
       </c>
       <c r="F6">
-        <v>1.06058220209053</v>
+        <v>0.9705948687064235</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>1.049529890216212</v>
+        <v>0.9728967456366773</v>
       </c>
       <c r="K6">
-        <v>1.050026939332132</v>
+        <v>0.9707201982709608</v>
       </c>
       <c r="L6">
-        <v>1.054215893725981</v>
+        <v>0.9792216142597363</v>
       </c>
       <c r="M6">
-        <v>1.062946612243975</v>
+        <v>0.9807884925151545</v>
       </c>
       <c r="N6">
-        <v>1.019879281142692</v>
+        <v>0.9915962893910049</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.044362080694963</v>
+        <v>0.9483106800343926</v>
       </c>
       <c r="D7">
-        <v>1.046866488426631</v>
+        <v>0.9561771985817331</v>
       </c>
       <c r="E7">
-        <v>1.051106436828204</v>
+        <v>0.9649991681522635</v>
       </c>
       <c r="F7">
-        <v>1.059789029803533</v>
+        <v>0.9662520384896713</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>1.048851969514199</v>
+        <v>0.9691292393564623</v>
       </c>
       <c r="K7">
-        <v>1.049322596813124</v>
+        <v>0.9668317844703425</v>
       </c>
       <c r="L7">
-        <v>1.053552109625916</v>
+        <v>0.9755360705643867</v>
       </c>
       <c r="M7">
-        <v>1.06221361260545</v>
+        <v>0.9767724463186336</v>
       </c>
       <c r="N7">
-        <v>1.019636852384269</v>
+        <v>0.9901807958915928</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.041036003972119</v>
+        <v>0.9284821884292205</v>
       </c>
       <c r="D8">
-        <v>1.043651544782026</v>
+        <v>0.9374633282004042</v>
       </c>
       <c r="E8">
-        <v>1.048062736051536</v>
+        <v>0.9472186095255617</v>
       </c>
       <c r="F8">
-        <v>1.056457635697644</v>
+        <v>0.9469974702946512</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>1.046001516165925</v>
+        <v>0.9523899513482739</v>
       </c>
       <c r="K8">
-        <v>1.046361850760844</v>
+        <v>0.9495627683606599</v>
       </c>
       <c r="L8">
-        <v>1.050760965744564</v>
+        <v>0.9591644086285779</v>
       </c>
       <c r="M8">
-        <v>1.059133184507377</v>
+        <v>0.9589467074222457</v>
       </c>
       <c r="N8">
-        <v>1.018614591491492</v>
+        <v>0.983884224847273</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.035106927191077</v>
+        <v>0.8876712786761362</v>
       </c>
       <c r="D9">
-        <v>1.037921960566552</v>
+        <v>0.899064504356222</v>
       </c>
       <c r="E9">
-        <v>1.042635629575314</v>
+        <v>0.9107502664584606</v>
       </c>
       <c r="F9">
-        <v>1.050523089021409</v>
+        <v>0.9075284586402244</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1.040911834949643</v>
+        <v>0.9179258895707145</v>
       </c>
       <c r="K9">
-        <v>1.041078281382408</v>
+        <v>0.9140390988655648</v>
       </c>
       <c r="L9">
-        <v>1.045776711941032</v>
+        <v>0.9254788319665795</v>
       </c>
       <c r="M9">
-        <v>1.053639007243573</v>
+        <v>0.9223240190229303</v>
       </c>
       <c r="N9">
-        <v>1.01677833938926</v>
+        <v>0.9709172311534656</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.031104808891266</v>
+        <v>0.8542589704525425</v>
       </c>
       <c r="D10">
-        <v>1.034055502186973</v>
+        <v>0.8677592330878694</v>
       </c>
       <c r="E10">
-        <v>1.038971493325862</v>
+        <v>0.8810489903996301</v>
       </c>
       <c r="F10">
-        <v>1.046520062579968</v>
+        <v>0.8753850579399224</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>1.037470649832531</v>
+        <v>0.8897419268240936</v>
       </c>
       <c r="K10">
-        <v>1.037508062639325</v>
+        <v>0.8850114321538296</v>
       </c>
       <c r="L10">
-        <v>1.042406508592144</v>
+        <v>0.8979585702352491</v>
       </c>
       <c r="M10">
-        <v>1.049928490539341</v>
+        <v>0.8924389369800392</v>
       </c>
       <c r="N10">
-        <v>1.015529589008377</v>
+        <v>0.9603503264663968</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.029359312437538</v>
+        <v>0.8374093132735739</v>
       </c>
       <c r="D11">
-        <v>1.032369425976715</v>
+        <v>0.8520228549379875</v>
       </c>
       <c r="E11">
-        <v>1.037373225023412</v>
+        <v>0.866133769738062</v>
       </c>
       <c r="F11">
-        <v>1.044774848800068</v>
+        <v>0.8592381411801888</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>1.035968467098413</v>
+        <v>0.8755528162860434</v>
       </c>
       <c r="K11">
-        <v>1.035950041062793</v>
+        <v>0.8704032540695449</v>
       </c>
       <c r="L11">
-        <v>1.040935245259233</v>
+        <v>0.8841147008052223</v>
       </c>
       <c r="M11">
-        <v>1.048309724469149</v>
+        <v>0.8774120404863607</v>
       </c>
       <c r="N11">
-        <v>1.014982781596008</v>
+        <v>0.9550537767738932</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.028709000077694</v>
+        <v>0.8306543578312241</v>
       </c>
       <c r="D12">
-        <v>1.03174129089536</v>
+        <v>0.8457245182874572</v>
       </c>
       <c r="E12">
-        <v>1.036777739503773</v>
+        <v>0.8601674272516233</v>
       </c>
       <c r="F12">
-        <v>1.044124745288906</v>
+        <v>0.8527774630695484</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>1.03540860554721</v>
+        <v>0.8698704199325673</v>
       </c>
       <c r="K12">
-        <v>1.035369441849504</v>
+        <v>0.8645539031873191</v>
       </c>
       <c r="L12">
-        <v>1.040386897755597</v>
+        <v>0.8785728884896732</v>
       </c>
       <c r="M12">
-        <v>1.04770656118122</v>
+        <v>0.8713973695840901</v>
       </c>
       <c r="N12">
-        <v>1.014778735749135</v>
+        <v>0.9529380731220224</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.028848584021224</v>
+        <v>0.8321289781491364</v>
       </c>
       <c r="D13">
-        <v>1.031876112877346</v>
+        <v>0.8470989385752711</v>
       </c>
       <c r="E13">
-        <v>1.036905556456136</v>
+        <v>0.8614692268457914</v>
       </c>
       <c r="F13">
-        <v>1.044264279696541</v>
+        <v>0.854187213530162</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>1.035528784018839</v>
+        <v>0.871110580232215</v>
       </c>
       <c r="K13">
-        <v>1.03549406849484</v>
+        <v>0.8658304614412078</v>
       </c>
       <c r="L13">
-        <v>1.040504605077418</v>
+        <v>0.8797822487854247</v>
       </c>
       <c r="M13">
-        <v>1.047836027963774</v>
+        <v>0.8727098933641948</v>
       </c>
       <c r="N13">
-        <v>1.014822547050643</v>
+        <v>0.9533995333103196</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.029305597761362</v>
+        <v>0.8368621845270831</v>
       </c>
       <c r="D14">
-        <v>1.032317542296348</v>
+        <v>0.8515124858032923</v>
       </c>
       <c r="E14">
-        <v>1.037324039455553</v>
+        <v>0.8656502283200025</v>
       </c>
       <c r="F14">
-        <v>1.04472114925531</v>
+        <v>0.8587145752581232</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>1.035922227565426</v>
+        <v>0.8750924249687001</v>
       </c>
       <c r="K14">
-        <v>1.035902087289257</v>
+        <v>0.8699293185819004</v>
       </c>
       <c r="L14">
-        <v>1.04088995687591</v>
+        <v>0.8836656486074332</v>
       </c>
       <c r="M14">
-        <v>1.048259905569687</v>
+        <v>0.8769246604883406</v>
       </c>
       <c r="N14">
-        <v>1.014965934352414</v>
+        <v>0.9548822390181432</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.029586917491995</v>
+        <v>0.8397071223314541</v>
       </c>
       <c r="D15">
-        <v>1.032589274173725</v>
+        <v>0.8541667099925719</v>
       </c>
       <c r="E15">
-        <v>1.037581637873289</v>
+        <v>0.8681650723577294</v>
       </c>
       <c r="F15">
-        <v>1.045002393982243</v>
+        <v>0.8614375113465219</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>1.036164389590152</v>
+        <v>0.8774866019054938</v>
       </c>
       <c r="K15">
-        <v>1.03615323000111</v>
+        <v>0.8723939640346895</v>
       </c>
       <c r="L15">
-        <v>1.041127137225676</v>
+        <v>0.886000955356525</v>
       </c>
       <c r="M15">
-        <v>1.048520819253089</v>
+        <v>0.8794593183273014</v>
       </c>
       <c r="N15">
-        <v>1.015054155135527</v>
+        <v>0.9557745172107899</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.031220381217138</v>
+        <v>0.8553169799845256</v>
       </c>
       <c r="D16">
-        <v>1.034167145623771</v>
+        <v>0.868748522441306</v>
       </c>
       <c r="E16">
-        <v>1.039077313781741</v>
+        <v>0.8819870256472474</v>
       </c>
       <c r="F16">
-        <v>1.046635630581571</v>
+        <v>0.87640039301836</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>1.037570083988449</v>
+        <v>0.8906335112749966</v>
       </c>
       <c r="K16">
-        <v>1.037611203200614</v>
+        <v>0.8859294623659442</v>
       </c>
       <c r="L16">
-        <v>1.042503894736899</v>
+        <v>0.8988287252149448</v>
       </c>
       <c r="M16">
-        <v>1.05003566248455</v>
+        <v>0.8933835617584849</v>
       </c>
       <c r="N16">
-        <v>1.015565748614914</v>
+        <v>0.960683735150088</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.032241599264275</v>
+        <v>0.864395517370481</v>
       </c>
       <c r="D17">
-        <v>1.035153676581916</v>
+        <v>0.8772429305595503</v>
       </c>
       <c r="E17">
-        <v>1.040012341989709</v>
+        <v>0.8900429944190426</v>
       </c>
       <c r="F17">
-        <v>1.047656888725778</v>
+        <v>0.8851196043651155</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>1.038448548867655</v>
+        <v>0.8982866749266488</v>
       </c>
       <c r="K17">
-        <v>1.038522469008553</v>
+        <v>0.893810235602301</v>
       </c>
       <c r="L17">
-        <v>1.043364258595997</v>
+        <v>0.9062991622188717</v>
       </c>
       <c r="M17">
-        <v>1.050982601642855</v>
+        <v>0.9014940161428743</v>
       </c>
       <c r="N17">
-        <v>1.015885011622206</v>
+        <v>0.9635482490953169</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.032836052206624</v>
+        <v>0.8694730868318498</v>
       </c>
       <c r="D18">
-        <v>1.035727962332573</v>
+        <v>0.8819980426987956</v>
       </c>
       <c r="E18">
-        <v>1.040556606213863</v>
+        <v>0.894553894206912</v>
       </c>
       <c r="F18">
-        <v>1.048251430112707</v>
+        <v>0.8900014786825525</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>1.038959776764373</v>
+        <v>0.9025689602401581</v>
       </c>
       <c r="K18">
-        <v>1.039052832485777</v>
+        <v>0.8982203768366663</v>
       </c>
       <c r="L18">
-        <v>1.043864946101598</v>
+        <v>0.9104801288991103</v>
       </c>
       <c r="M18">
-        <v>1.051533773423067</v>
+        <v>0.9060337781794062</v>
       </c>
       <c r="N18">
-        <v>1.016070646239165</v>
+        <v>0.9651529761110718</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.033038542831997</v>
+        <v>0.8711705045745093</v>
       </c>
       <c r="D19">
-        <v>1.035923587405972</v>
+        <v>0.8835883285064815</v>
       </c>
       <c r="E19">
-        <v>1.040741997864389</v>
+        <v>0.8960626913298558</v>
       </c>
       <c r="F19">
-        <v>1.048453961861148</v>
+        <v>0.8916343071310273</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>1.039133896385259</v>
+        <v>0.9040007940245042</v>
       </c>
       <c r="K19">
-        <v>1.039233477464123</v>
+        <v>0.8996950449294379</v>
       </c>
       <c r="L19">
-        <v>1.044035474663893</v>
+        <v>0.9118782290722568</v>
       </c>
       <c r="M19">
-        <v>1.051721513654259</v>
+        <v>0.9075519652271197</v>
       </c>
       <c r="N19">
-        <v>1.016133844100685</v>
+        <v>0.9656898178087532</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.032132157513226</v>
+        <v>0.8634447608264136</v>
       </c>
       <c r="D20">
-        <v>1.035047949654619</v>
+        <v>0.8763528876313569</v>
       </c>
       <c r="E20">
-        <v>1.039912138813007</v>
+        <v>0.889198756934713</v>
       </c>
       <c r="F20">
-        <v>1.047547435927113</v>
+        <v>0.884205908235119</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>1.038354418929008</v>
+        <v>0.8974849779166275</v>
       </c>
       <c r="K20">
-        <v>1.038424819505771</v>
+        <v>0.8929846432081364</v>
       </c>
       <c r="L20">
-        <v>1.043272068890828</v>
+        <v>0.9055165059061012</v>
       </c>
       <c r="M20">
-        <v>1.050881124672923</v>
+        <v>0.9006442456328623</v>
       </c>
       <c r="N20">
-        <v>1.015850818504636</v>
+        <v>0.9632479703168011</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.029171073216511</v>
+        <v>0.8354836221724812</v>
       </c>
       <c r="D21">
-        <v>1.03218760398818</v>
+        <v>0.8502267187387096</v>
       </c>
       <c r="E21">
-        <v>1.037200857333935</v>
+        <v>0.8644321055130816</v>
       </c>
       <c r="F21">
-        <v>1.044586664282696</v>
+        <v>0.8573955944272245</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>1.035806420760359</v>
+        <v>0.8739325133701928</v>
       </c>
       <c r="K21">
-        <v>1.035781988357567</v>
+        <v>0.8687352976013285</v>
       </c>
       <c r="L21">
-        <v>1.040776532069838</v>
+        <v>0.8825343444069979</v>
       </c>
       <c r="M21">
-        <v>1.048135136650864</v>
+        <v>0.8756968066135726</v>
       </c>
       <c r="N21">
-        <v>1.01492373641907</v>
+        <v>0.9544501602764226</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.027297961370661</v>
+        <v>0.8148814602314153</v>
       </c>
       <c r="D22">
-        <v>1.030378445588498</v>
+        <v>0.8310421218749312</v>
       </c>
       <c r="E22">
-        <v>1.03548561886827</v>
+        <v>0.8462672181822791</v>
       </c>
       <c r="F22">
-        <v>1.042714351047513</v>
+        <v>0.8377209936215833</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>1.034193461159823</v>
+        <v>0.8566174540076865</v>
       </c>
       <c r="K22">
-        <v>1.034109422142072</v>
+        <v>0.8509132278987374</v>
       </c>
       <c r="L22">
-        <v>1.039196726786682</v>
+        <v>0.8656533600172049</v>
       </c>
       <c r="M22">
-        <v>1.046397705749013</v>
+        <v>0.8573763516697828</v>
       </c>
       <c r="N22">
-        <v>1.014335409212803</v>
+        <v>0.9480171930411115</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.028292034507777</v>
+        <v>0.8261634590474548</v>
       </c>
       <c r="D23">
-        <v>1.031338556130766</v>
+        <v>0.84154059008089</v>
       </c>
       <c r="E23">
-        <v>1.036395920750502</v>
+        <v>0.8562051799495124</v>
       </c>
       <c r="F23">
-        <v>1.043707942975484</v>
+        <v>0.8484863144490441</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>1.035049578893487</v>
+        <v>0.8660947026274639</v>
       </c>
       <c r="K23">
-        <v>1.034997137271412</v>
+        <v>0.8606675001213808</v>
       </c>
       <c r="L23">
-        <v>1.040035252155885</v>
+        <v>0.8748913575535661</v>
       </c>
       <c r="M23">
-        <v>1.047319808003666</v>
+        <v>0.8674018626604491</v>
       </c>
       <c r="N23">
-        <v>1.014647815229793</v>
+        <v>0.9515341454518239</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.032181613253357</v>
+        <v>0.8638750306236676</v>
       </c>
       <c r="D24">
-        <v>1.03509572662457</v>
+        <v>0.876755667994685</v>
       </c>
       <c r="E24">
-        <v>1.039957419778833</v>
+        <v>0.8895808047091992</v>
       </c>
       <c r="F24">
-        <v>1.047596896458321</v>
+        <v>0.8846193897613428</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>1.03839695579567</v>
+        <v>0.8978477841633159</v>
       </c>
       <c r="K24">
-        <v>1.038468946701523</v>
+        <v>0.8933582616941276</v>
       </c>
       <c r="L24">
-        <v>1.043313728995119</v>
+        <v>0.9058706924590589</v>
       </c>
       <c r="M24">
-        <v>1.05092698133427</v>
+        <v>0.9010288024285216</v>
       </c>
       <c r="N24">
-        <v>1.015866270712587</v>
+        <v>0.9633838549641489</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.03664817334241</v>
+        <v>0.8991009233870381</v>
       </c>
       <c r="D25">
-        <v>1.039411178549703</v>
+        <v>0.9098016850838055</v>
       </c>
       <c r="E25">
-        <v>1.044046545262018</v>
+        <v>0.9209444663288033</v>
       </c>
       <c r="F25">
-        <v>1.052065275295967</v>
+        <v>0.9185599703384936</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>1.042235876875731</v>
+        <v>0.927576309919403</v>
       </c>
       <c r="K25">
-        <v>1.042452402005795</v>
+        <v>0.9239826626470256</v>
       </c>
       <c r="L25">
-        <v>1.047073381547942</v>
+        <v>0.9349079508451708</v>
       </c>
       <c r="M25">
-        <v>1.055067549748624</v>
+        <v>0.9325694157313629</v>
       </c>
       <c r="N25">
-        <v>1.017257303789771</v>
+        <v>0.9745454565877202</v>
       </c>
     </row>
   </sheetData>
